--- a/data/trans_bre/P14B23_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14B23_2016_2023-Provincia-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6599252939673764</v>
+        <v>0.7320522039893871</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3075668464931251</v>
+        <v>0.3679408147248476</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.061264672311615</v>
+        <v>0.0319770921947627</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.03309528367677898</v>
+        <v>-0.01423225475562252</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.508549619012664</v>
+        <v>8.533631092623059</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.121956917619838</v>
+        <v>4.214776265252772</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6.504476687630074</v>
+        <v>6.718290965724884</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6.687724325482123</v>
+        <v>6.701731740682353</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         <v>3.096541141945006</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.19054317613388</v>
+        <v>5.190543176133881</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>2.905765534533495</v>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.10568221880868</v>
+        <v>1.228320173144677</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.294792463855182</v>
+        <v>2.28075859992454</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3767418344804391</v>
+        <v>0.4066282708115074</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3711073276686657</v>
+        <v>0.3580588635282265</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.220709484490033</v>
+        <v>5.395809057025954</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.874696906655659</v>
+        <v>8.059765901972414</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>10.44665887662112</v>
+        <v>10.47900251918616</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.005512487898742</v>
+        <v>3.018357171298612</v>
       </c>
     </row>
     <row r="10">
@@ -739,14 +739,14 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.130025504529498</v>
+        <v>2.320532859224224</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.297931995978419</v>
+        <v>-2.279533580368336</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>-0.38436960118646</v>
+        <v>-0.3964750204068457</v>
       </c>
     </row>
     <row r="12">
@@ -757,14 +757,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.806359206885139</v>
+        <v>6.934010373055632</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.136304880354699</v>
+        <v>3.143433250253941</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>1.200844358627102</v>
+        <v>1.140912847639717</v>
       </c>
     </row>
     <row r="13">
@@ -782,13 +782,13 @@
         <v>1.606420446727317</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5727688097282045</v>
+        <v>0.5727688097282059</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.190688242350426</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1349223385851138</v>
+        <v>0.1349223385851142</v>
       </c>
     </row>
     <row r="14">
@@ -799,16 +799,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2668294746298198</v>
+        <v>-0.4976222869274667</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.969274515098073</v>
+        <v>-2.794323312881483</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2000538164515097</v>
+        <v>-0.326587850499495</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4355585702088901</v>
+        <v>-0.4103802600898197</v>
       </c>
     </row>
     <row r="15">
@@ -819,16 +819,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.753819194353533</v>
+        <v>3.697727274067457</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.307259531559264</v>
+        <v>3.187893653673161</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6.107133241703512</v>
+        <v>6.588280583379073</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.284265897289863</v>
+        <v>1.40007133482776</v>
       </c>
     </row>
     <row r="16">
@@ -852,7 +852,7 @@
         <v>0.6693937702437647</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1.990778986008053</v>
+        <v>1.990778986008052</v>
       </c>
     </row>
     <row r="17">
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.716638202626144</v>
+        <v>-1.913698784766256</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2220888616574074</v>
+        <v>0.467042553803905</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.3820764521342513</v>
+        <v>-0.3628213072473483</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1208655518600411</v>
+        <v>-0.05346990364020697</v>
       </c>
     </row>
     <row r="18">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.736229850872842</v>
+        <v>6.397933246721135</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.158667291552243</v>
+        <v>4.185980522978324</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.671615235351022</v>
+        <v>3.389492172657714</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9.960936037710072</v>
+        <v>11.90005881565997</v>
       </c>
     </row>
     <row r="19">
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.983579765225604</v>
+        <v>4.17489252195995</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.876956072710931</v>
+        <v>-3.344646262540817</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.677993228521142</v>
+        <v>2.018950212806018</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4954952929934693</v>
+        <v>-0.5062225001456856</v>
       </c>
     </row>
     <row r="21">
@@ -947,14 +947,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.20876030396501</v>
+        <v>11.27035882463806</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.328887170386104</v>
+        <v>2.417737026211277</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>0.8483097421844971</v>
+        <v>0.8199464329909193</v>
       </c>
     </row>
     <row r="22">
@@ -989,16 +989,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3219790823172006</v>
+        <v>0.3820829156418306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2230638879553849</v>
+        <v>0.2326795461902827</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.02829848941965291</v>
+        <v>0.008973191063890834</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.02085290073303233</v>
+        <v>0.02457092147292259</v>
       </c>
     </row>
     <row r="24">
@@ -1009,16 +1009,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.514472765102872</v>
+        <v>3.507773436553674</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.160480336736885</v>
+        <v>5.042068803226549</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>8.617061348936026</v>
+        <v>7.970487534720637</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.65099305803395</v>
+        <v>1.55831618979096</v>
       </c>
     </row>
     <row r="25">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7915398375050799</v>
+        <v>0.9173695028764685</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.98015181077659</v>
+        <v>2.13638296210831</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.274948760924739</v>
+        <v>0.2755666799921979</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.615900578440276</v>
+        <v>0.708695201763632</v>
       </c>
     </row>
     <row r="27">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.190650894798021</v>
+        <v>4.198631818883425</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.40057683910856</v>
+        <v>5.474947082288869</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.913797061488145</v>
+        <v>3.717042481642515</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.614569587914698</v>
+        <v>4.246693295843154</v>
       </c>
     </row>
     <row r="28">
@@ -1100,13 +1100,13 @@
         <v>3.002995427706014</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2.613441058333245</v>
+        <v>2.613441058333246</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>2.191814170264379</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.784054551303826</v>
+        <v>0.7840545513038262</v>
       </c>
     </row>
     <row r="29">
@@ -1117,16 +1117,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.228353116758742</v>
+        <v>2.189520783960458</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.663273539500607</v>
+        <v>1.747876436563411</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>1.282399475436057</v>
+        <v>1.306162695570441</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.4162760138811117</v>
+        <v>0.4511211699160346</v>
       </c>
     </row>
     <row r="30">
@@ -1137,16 +1137,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.83711324725617</v>
+        <v>3.809821036141889</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.510511868656216</v>
+        <v>3.626178027036528</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3.56743307262092</v>
+        <v>3.475883763298539</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.234720582871541</v>
+        <v>1.278256847035783</v>
       </c>
     </row>
     <row r="31">
